--- a/data/metadata/mapping-residencia-pais-nombre.xlsx
+++ b/data/metadata/mapping-residencia-pais-nombre.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Albania</t>
   </si>
@@ -313,12 +313,6 @@
     <t>http://opendata.aragon.es/kos/iaest/residencia-pais-nombre/sudan</t>
   </si>
   <si>
-    <t>Sudán del Sur</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/residencia-pais-nombre/sudan-del-sur</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -857,19 +851,13 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/residencia-pais-nombre/bangladesh</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/residencia-pais-nombre/bahamas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -880,44 +868,35 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,15 +906,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1321,7 @@
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2059,22 +2035,6 @@
       </c>
       <c r="B140" s="2" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2219,9 +2179,7 @@
     <hyperlink r:id="rId138" ref="B138"/>
     <hyperlink r:id="rId139" ref="B139"/>
     <hyperlink r:id="rId140" ref="B140"/>
-    <hyperlink r:id="rId141" ref="B141"/>
-    <hyperlink r:id="rId142" ref="B142"/>
   </hyperlinks>
-  <drawing r:id="rId143"/>
+  <drawing r:id="rId141"/>
 </worksheet>
 </file>